--- a/template-dung/OJT_Template_Group5_User-1234 - TC.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234 - TC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="368">
   <si>
     <t>TR-ID</t>
   </si>
@@ -1008,6 +1008,336 @@
     <t>1. User logged in to Điện máy đỏ web.
 2. Click on "Chào: group05dung1".
 3. Observer the program's navigation.</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>Verify that the product of the same type are listed in group.</t>
+  </si>
+  <si>
+    <t>The product of the same type are listed in group.</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>Verify that the mobile phone number follows the format "+84 xxx xxxxxx".</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Click on "laptop".
+3. Observer the program's navigation.</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observer the mobile phone numbers.</t>
+  </si>
+  <si>
+    <t>TC-022</t>
+  </si>
+  <si>
+    <t>Verify that the product type's name is highlight when mouse hovering.</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observer the program' navigation.</t>
+  </si>
+  <si>
+    <t>TC-023</t>
+  </si>
+  <si>
+    <t>Verify that all spelling errors are corrected in homepage.</t>
+  </si>
+  <si>
+    <t>Verify that the address info follows the format "street address, district, city".</t>
+  </si>
+  <si>
+    <t>TC-024</t>
+  </si>
+  <si>
+    <t>Verify that the link's name is in capital.</t>
+  </si>
+  <si>
+    <t>Đăng Xuất, ..</t>
+  </si>
+  <si>
+    <t>TC-025</t>
+  </si>
+  <si>
+    <t>TC-026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the holder's border of product is highlighted when mouse hovering. </t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observer the spelling are corrected.</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observer the address.</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observer the link's name.</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observer the border's color.</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>TC-027</t>
+  </si>
+  <si>
+    <t>Verify that the product price has the thousand separator and the unit price "đồng".</t>
+  </si>
+  <si>
+    <t>1. User navigate to Điện máy đỏ web.
+2. Observer the price.</t>
+  </si>
+  <si>
+    <t>100,000 VNĐ</t>
+  </si>
+  <si>
+    <t>TC-028</t>
+  </si>
+  <si>
+    <t>Verify that the old price is strikethroughed.</t>
+  </si>
+  <si>
+    <t>TC-029</t>
+  </si>
+  <si>
+    <t>Verify that user can register new account with valid information.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung4/123456, Dương Tuấn Dũng, dtdung4@gmail.com, An Giang, 12345678, Name, 1/1/1983
+4. Click on "Đăng ký" button.
+5. Observer the program's dialog.</t>
+  </si>
+  <si>
+    <t>The account name and email are not in database.</t>
+  </si>
+  <si>
+    <t>TC-030</t>
+  </si>
+  <si>
+    <t>Verify that the account's information is save in the database.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung3/123456.
+4. Click on "Chào: group05dung3".
+5. Observer the account's information.</t>
+  </si>
+  <si>
+    <t>Giới tính được lưu theo giá trị mặc định.</t>
+  </si>
+  <si>
+    <t>TC-031</t>
+  </si>
+  <si>
+    <t>Verify that account is invalid when user do not active account.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung3/123456.
+4. Observer the account's information.</t>
+  </si>
+  <si>
+    <t>Account is invalid when user do not active account.</t>
+  </si>
+  <si>
+    <t>User is not logged in, and Account is registered.</t>
+  </si>
+  <si>
+    <t>TC-032</t>
+  </si>
+  <si>
+    <t>Verify that account has the user right when user register new account.</t>
+  </si>
+  <si>
+    <t>Account has the user right when user register new account.</t>
+  </si>
+  <si>
+    <t>TC-033</t>
+  </si>
+  <si>
+    <t>Verify that the error message is displayed when user tries to submit with space only in each of the textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input space only.
+4. Click on "Đăng ký" button.
+5. Observer the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-034</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng ký thành công" message is displayed when user submits valid information.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung5/123456, Dương Tuấn Dũng, dtdung5@gmail.com, An Giang, 12345678, Name, 11/11/1983
+4. Click on "Đăng ký" button.
+5. Observer the program's dialog.</t>
+  </si>
+  <si>
+    <t>TC-035</t>
+  </si>
+  <si>
+    <t>Verify that the "Tài khoản này đã tồn tại" message is displayed when an account is registed.</t>
+  </si>
+  <si>
+    <t>The account name is in database.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung2/123456, Dương Tuấn Dũng, dtdung2@gmail.com, An Giang, 12345678, Name, 11/11/1983
+4. Click on "Đăng ký" button.
+5. Observer the program's dialog.</t>
+  </si>
+  <si>
+    <t>Thông báo chưa chính xác: Tài khoản hoặc email đã được sử dụng.</t>
+  </si>
+  <si>
+    <t>TC-036</t>
+  </si>
+  <si>
+    <t>Verify that the "Tên đăng nhập" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>The "Tên đăng nhập" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>TC-037</t>
+  </si>
+  <si>
+    <t>TC-038</t>
+  </si>
+  <si>
+    <t>Verify that "Mật khẩu" textbox has a maximum 20 characters in length.</t>
+  </si>
+  <si>
+    <t>The "Mật khẩu" textbox has a maximum 20 characters in length.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observer the "Mật khẩu" textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information.
+4. Observer the "Tên đăng nhập" textbox.</t>
+  </si>
+  <si>
+    <t>Verify that "Email" textbox has a maximum of 30 character in length.</t>
+  </si>
+  <si>
+    <t>The "Email" textbox has a maximum of 30 character in length.</t>
+  </si>
+  <si>
+    <t>TC-039</t>
+  </si>
+  <si>
+    <t>Verify that "Họ tên" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>The "Họ tên" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>TC-040</t>
+  </si>
+  <si>
+    <t>Verify that "Địa chỉ" textbox has a maximum of 50 character in length.</t>
+  </si>
+  <si>
+    <t>The "Địa chỉ" textbox has a maximum of 50 character in length.</t>
+  </si>
+  <si>
+    <t>TC-041</t>
+  </si>
+  <si>
+    <t>Verify that "Số điện thoại" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>The "Số điện thoại" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>TC-042</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observer the "Số điện thoại" textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observer the "Địa chỉ" textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observer the  "Họ tên" textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observer the "Email" textbox.</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng ký" button is highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information
+4. Observer the "Đăng ký" button.</t>
+  </si>
+  <si>
+    <t>TC-043</t>
+  </si>
+  <si>
+    <t>Verify that user can select a date in the datetime picker control for "Ngày sinh".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Select information: date.
+4. Observer the "Đăng ký" button.</t>
+  </si>
+  <si>
+    <t>TC-044</t>
+  </si>
+  <si>
+    <t>Verify that user can logged in successfully with a valid account.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: admin/admin@123
+4. Click on "Đăng nhập" button.
+5. Observer the program's dialog.</t>
   </si>
 </sst>
 </file>
@@ -1342,11 +1672,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1355,7 +1685,61 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1685,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1700,10 +2084,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1761,7 +2145,7 @@
       <c r="D7" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="48" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2848,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B50" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3461,8 +3845,730 @@
       </c>
       <c r="I26" s="26"/>
     </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="26"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G1:G35 G55:G1048576">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G51">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:G54">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>

--- a/template-dung/OJT_Template_Group5_User-1234 - TC.xlsx
+++ b/template-dung/OJT_Template_Group5_User-1234 - TC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="497">
   <si>
     <t>TR-ID</t>
   </si>
@@ -796,25 +796,10 @@
 2. Observe the hot deal's banner.</t>
   </si>
   <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Click on "Đăng ký".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Click on "Đăng nhập".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
     <t>Verify that user can view the "Đăng xuất" link when user is logged in.</t>
   </si>
   <si>
     <t>User can view the "Đăng xuất" link when user is logged in.</t>
-  </si>
-  <si>
-    <t>1. User logged in to Điện máy đỏ web.
-2. Click on "Đăng xuất".
-3. Observer the program's navigation.</t>
   </si>
   <si>
     <t>1. User logged in to Điện máy đỏ web.
@@ -838,506 +823,1117 @@
     <t>User can view the "Đăng nhập" link when user is not logged in.</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>kết quả không tìm thấy.</t>
+  </si>
+  <si>
+    <t>Verify that user can lookup for existing product by product's name in "máy ảnh".</t>
+  </si>
+  <si>
+    <t>Verify that user can lookup for existing product product's name in "laptop".</t>
+  </si>
+  <si>
+    <t>Kết quả thiếu chính xác.</t>
+  </si>
+  <si>
+    <t>User can lookup for existing product by product's name in "máy ảnh".</t>
+  </si>
+  <si>
+    <t>User can lookup for existing product product's name in "laptop".</t>
+  </si>
+  <si>
+    <t>Verify that user can view all the product types.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Observe the product type in homepage.</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>User can add product into list "Yêu thích" on "section "Sản phẩm".</t>
+  </si>
+  <si>
+    <t>User can add product into list "Yêu thích" on "section "Bán nhiều nhất".</t>
+  </si>
+  <si>
+    <t>Verify that user can remove product from list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người dùng, home </t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Yêu thích" on product type.</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Yêu thích" on section "Bán nhiều nhất".</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Yêu thích" on section "Sản phẩm".</t>
+  </si>
+  <si>
+    <t>User can add product into list "Yêu thích" on product type.</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>List "Yêu thích": Asus Vivobook S14 S410UA, Canon M10 KIT 15-45mm</t>
+  </si>
+  <si>
+    <t>Verify that user can add product into list "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>Verify that user can view list "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>Verify that user can view list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>Verify that user can view total cost of "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>Verify that user can loggout successfully when user user is logged in.</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t>Verify that user can view account information when user is logged in.</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>Verify that the product of the same type are listed in group.</t>
+  </si>
+  <si>
+    <t>The product of the same type are listed in group.</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>Verify that the mobile phone number follows the format "+84 xxx xxxxxx".</t>
+  </si>
+  <si>
+    <t>TC-022</t>
+  </si>
+  <si>
+    <t>Verify that the product type's name is highlight when mouse hovering.</t>
+  </si>
+  <si>
+    <t>TC-023</t>
+  </si>
+  <si>
+    <t>Verify that all spelling errors are corrected in homepage.</t>
+  </si>
+  <si>
+    <t>Verify that the address info follows the format "street address, district, city".</t>
+  </si>
+  <si>
+    <t>TC-024</t>
+  </si>
+  <si>
+    <t>Verify that the link's name is in capital.</t>
+  </si>
+  <si>
+    <t>Đăng Xuất, ..</t>
+  </si>
+  <si>
+    <t>TC-025</t>
+  </si>
+  <si>
+    <t>TC-026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the holder's border of product is highlighted when mouse hovering. </t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>TC-027</t>
+  </si>
+  <si>
+    <t>Verify that the product price has the thousand separator and the unit price "đồng".</t>
+  </si>
+  <si>
+    <t>100,000 VNĐ</t>
+  </si>
+  <si>
+    <t>TC-028</t>
+  </si>
+  <si>
+    <t>Verify that the old price is strikethroughed.</t>
+  </si>
+  <si>
+    <t>TC-029</t>
+  </si>
+  <si>
+    <t>Verify that user can register new account with valid information.</t>
+  </si>
+  <si>
+    <t>The account name and email are not in database.</t>
+  </si>
+  <si>
+    <t>TC-030</t>
+  </si>
+  <si>
+    <t>Verify that the account's information is save in the database.</t>
+  </si>
+  <si>
+    <t>Giới tính được lưu theo giá trị mặc định.</t>
+  </si>
+  <si>
+    <t>TC-031</t>
+  </si>
+  <si>
+    <t>Verify that account is invalid when user do not active account.</t>
+  </si>
+  <si>
+    <t>Account is invalid when user do not active account.</t>
+  </si>
+  <si>
+    <t>User is not logged in, and Account is registered.</t>
+  </si>
+  <si>
+    <t>TC-032</t>
+  </si>
+  <si>
+    <t>Verify that account has the user right when user register new account.</t>
+  </si>
+  <si>
+    <t>Account has the user right when user register new account.</t>
+  </si>
+  <si>
+    <t>TC-033</t>
+  </si>
+  <si>
+    <t>Verify that the error message is displayed when user tries to submit with space only in each of the textbox.</t>
+  </si>
+  <si>
+    <t>TC-034</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng ký thành công" message is displayed when user submits valid information.</t>
+  </si>
+  <si>
+    <t>TC-035</t>
+  </si>
+  <si>
+    <t>Verify that the "Tài khoản này đã tồn tại" message is displayed when an account is registed.</t>
+  </si>
+  <si>
+    <t>The account name is in database.</t>
+  </si>
+  <si>
+    <t>Thông báo chưa chính xác: Tài khoản hoặc email đã được sử dụng.</t>
+  </si>
+  <si>
+    <t>TC-036</t>
+  </si>
+  <si>
+    <t>Verify that the "Tên đăng nhập" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>The "Tên đăng nhập" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>TC-037</t>
+  </si>
+  <si>
+    <t>TC-038</t>
+  </si>
+  <si>
+    <t>Verify that "Mật khẩu" textbox has a maximum 20 characters in length.</t>
+  </si>
+  <si>
+    <t>The "Mật khẩu" textbox has a maximum 20 characters in length.</t>
+  </si>
+  <si>
+    <t>Verify that "Email" textbox has a maximum of 30 character in length.</t>
+  </si>
+  <si>
+    <t>The "Email" textbox has a maximum of 30 character in length.</t>
+  </si>
+  <si>
+    <t>TC-039</t>
+  </si>
+  <si>
+    <t>Verify that "Họ tên" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>The "Họ tên" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>TC-040</t>
+  </si>
+  <si>
+    <t>Verify that "Địa chỉ" textbox has a maximum of 50 character in length.</t>
+  </si>
+  <si>
+    <t>The "Địa chỉ" textbox has a maximum of 50 character in length.</t>
+  </si>
+  <si>
+    <t>TC-041</t>
+  </si>
+  <si>
+    <t>Verify that "Số điện thoại" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>The "Số điện thoại" textbox has a maximum of 20 character in length.</t>
+  </si>
+  <si>
+    <t>TC-042</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng ký" button is highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>TC-043</t>
+  </si>
+  <si>
+    <t>Verify that user can select a date in the datetime picker control for "Ngày sinh".</t>
+  </si>
+  <si>
+    <t>TC-044</t>
+  </si>
+  <si>
+    <t>Verify that user can logged in successfully with a valid account.</t>
+  </si>
+  <si>
+    <t>TC-045</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng nhập thành công" message is displayed when user logged with a valid account.</t>
+  </si>
+  <si>
+    <t>TC-046</t>
+  </si>
+  <si>
+    <t>TC-047</t>
+  </si>
+  <si>
+    <t>Verify that user can not logged in successfully with an invalid account.</t>
+  </si>
+  <si>
+    <t>User can not logged in successfully with an invalid account.</t>
+  </si>
+  <si>
+    <t>TC-048</t>
+  </si>
+  <si>
+    <t>TC-049</t>
+  </si>
+  <si>
+    <t>Verify that the "Mật khẩu không đúng" error message is displayed when user login with wrong password.</t>
+  </si>
+  <si>
+    <t>Thông báo chưa chính xác: "kiểm tra lại thông tin tài khoản"</t>
+  </si>
+  <si>
+    <t>TC-050</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng nhập thất bại" message is displayed when user login with an invalid account.</t>
+  </si>
+  <si>
+    <t>TC-051</t>
+  </si>
+  <si>
+    <t>Verify that user can recovery the password.</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>TC-052</t>
+  </si>
+  <si>
+    <t>Verify that user can not order products in list "Giỏ hàng" when user is not logged in.</t>
+  </si>
+  <si>
+    <t>User can not order products in list "Giỏ hàng" when user is not logged in.</t>
+  </si>
+  <si>
+    <t>TC-053</t>
+  </si>
+  <si>
+    <t>Verify that "Tên đăng nhập" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>TC-054</t>
+  </si>
+  <si>
+    <t>Verify that "Mật khẩu" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>"Mật khẩu" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>TC-055</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng nhập" button is highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>TC-056</t>
+  </si>
+  <si>
+    <t>Verify that user can change the user password when user is logged in.</t>
+  </si>
+  <si>
+    <t>Verify that user can update the "Họ tên" when user is logged in.</t>
+  </si>
+  <si>
+    <t>User can update the "Họ tên" when user is logged in.</t>
+  </si>
+  <si>
+    <t>Verify that user can update the "Địa chỉ" when user is logged in.</t>
+  </si>
+  <si>
+    <t>TC-057</t>
+  </si>
+  <si>
+    <t>User can update the "Địa chỉ" when user is logged in.</t>
+  </si>
+  <si>
+    <t>TC-058</t>
+  </si>
+  <si>
+    <t>Verify that user can update the "Điện thoại" when user is logged in.</t>
+  </si>
+  <si>
+    <t>User can update the "Điện thoại" when user is logged in.</t>
+  </si>
+  <si>
+    <t>TC-059</t>
+  </si>
+  <si>
+    <t>TC-060</t>
+  </si>
+  <si>
+    <t>The updated information is save in the database.</t>
+  </si>
+  <si>
+    <t>Verify that the updated information is save in the database.</t>
+  </si>
+  <si>
+    <t>TC-061</t>
+  </si>
+  <si>
+    <t>Verify that user can not update information "Họ tên" with blanks only.</t>
+  </si>
+  <si>
+    <t>User can not update information "Họ tên" with blanks only.</t>
+  </si>
+  <si>
+    <t>Verify that user can not update information "Địa chỉ" with blanks only.</t>
+  </si>
+  <si>
+    <t>User can not update information "Địa chỉ" with blanks only.</t>
+  </si>
+  <si>
+    <t>TC-062</t>
+  </si>
+  <si>
+    <t>TC-063</t>
+  </si>
+  <si>
+    <t>Verify that user can not update information "Điện thoại" with blanks only.</t>
+  </si>
+  <si>
+    <t>User can not update information "Điện thoại" with blanks only.</t>
+  </si>
+  <si>
+    <t>TC-064</t>
+  </si>
+  <si>
+    <t>Verify that user can not update information for "Tên đăng nhập","Email","Giới tính","Ngày tháng năm sinh".</t>
+  </si>
+  <si>
+    <t>User can not update information for "Tên đăng nhập","Email","Giới tính","Ngày tháng năm sinh".</t>
+  </si>
+  <si>
+    <t>TC-066</t>
+  </si>
+  <si>
+    <t>Verify that user can cancel the update information.</t>
+  </si>
+  <si>
+    <t>TC-067</t>
+  </si>
+  <si>
+    <t>TC-068</t>
+  </si>
+  <si>
+    <t>TC-069</t>
+  </si>
+  <si>
+    <t>TC-070</t>
+  </si>
+  <si>
+    <t>Verify that the "Cập nhật" button is highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>TC-071</t>
+  </si>
+  <si>
+    <t>Verify that the "Bỏ qua" button is highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>TC-072</t>
+  </si>
+  <si>
+    <t>Verify that the account information is displayed in a table.</t>
+  </si>
+  <si>
+    <t>TC-073</t>
+  </si>
+  <si>
+    <t>TC-074</t>
+  </si>
+  <si>
+    <t>Verify that user can not update the password with blanks only.</t>
+  </si>
+  <si>
+    <t>User can not update the password with blanks only.</t>
+  </si>
+  <si>
+    <t>TC-075</t>
+  </si>
+  <si>
+    <t>Verify that user can not update the password that has 5 characters.</t>
+  </si>
+  <si>
+    <t>User can not update the password that has 5 characters.</t>
+  </si>
+  <si>
+    <t>Verify that the "Đổi mật khẩu thành công" message is displayed when password updates successfully.</t>
+  </si>
+  <si>
+    <t>TC-076</t>
+  </si>
+  <si>
+    <t>TC-077</t>
+  </si>
+  <si>
+    <t>Verify that the error message is displayed when password can not updates successfully.</t>
+  </si>
+  <si>
+    <t>The error message is displayed when password can not updates successfully.</t>
+  </si>
+  <si>
+    <t>TC-078</t>
+  </si>
+  <si>
+    <t>Verify that the "Mật khẩu hiện tại không đúng" message is displayed when user submits an wrong user password in "Mật khẩu hiện tại" textbox.</t>
+  </si>
+  <si>
+    <t>TC-079</t>
+  </si>
+  <si>
+    <t>TC-080</t>
+  </si>
+  <si>
+    <t>Verify that "Mật khẩu hiện tại" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>"Mật khẩu hiện tại" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>TC-081</t>
+  </si>
+  <si>
+    <t>Verify that "Mật khẩu mới" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>"Mật khẩu mới" textbox has a maximum of 20 characters in length.</t>
+  </si>
+  <si>
+    <t>TC-082</t>
+  </si>
+  <si>
+    <t>Verify that the "Đổi mật khẩu" button is highlighted when mouse hovering over.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Observe "Đổi mật khẩu" button.</t>
+  </si>
+  <si>
+    <t>TR-076</t>
+  </si>
+  <si>
+    <t>TC-083</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click "Đổi mật khẩu" button.
+6. Observe "BỎ qua" button.</t>
+  </si>
+  <si>
+    <t>1. User logged in to Điện máy đỏ web.
+2. Click on "Đăng xuất".
+3. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký".
+3. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập".
+3. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. On textbox "Nhập tên sản phẩm cần tìm", input: "sony", click on "Tìm".
+3. Observe the program's navigation.</t>
+  </si>
+  <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. On textbox "Nhập tên sản phẩm cần tìm", input: "acer", click on "Tìm".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>kết quả không tìm thấy.</t>
-  </si>
-  <si>
-    <t>Verify that user can lookup for existing product by product's name in "máy ảnh".</t>
-  </si>
-  <si>
-    <t>Verify that user can lookup for existing product product's name in "laptop".</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. On textbox "Nhập tên sản phẩm cần tìm", input: "sony", click on "Tìm".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>Kết quả thiếu chính xác.</t>
-  </si>
-  <si>
-    <t>User can lookup for existing product by product's name in "máy ảnh".</t>
-  </si>
-  <si>
-    <t>User can lookup for existing product product's name in "laptop".</t>
-  </si>
-  <si>
-    <t>Verify that user can view all the product types.</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Observe the product type in homepage.</t>
+3. Observe the program's navigation.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Canon M10 KIT 15-45mm".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>Verify that user can view the product's information by clicks on product's name.</t>
-  </si>
-  <si>
-    <t>Verify that user can view the product's information by clicks on product's image.</t>
+3. Observe the program's navigation.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on image of "Canon M10 KIT 15-45mm".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>User can view the product's information by clicks on product's image.</t>
-  </si>
-  <si>
-    <t>TC-011</t>
-  </si>
-  <si>
-    <t>User can add product into list "Yêu thích" on "section "Sản phẩm".</t>
-  </si>
-  <si>
-    <t>User can add product into list "Yêu thích" on "section "Bán nhiều nhất".</t>
-  </si>
-  <si>
-    <t>Verify that user can remove product from list "Yêu thích".</t>
-  </si>
-  <si>
-    <t>TC-012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người dùng, home </t>
-  </si>
-  <si>
-    <t>Verify that user can add product into list "Yêu thích" on product type.</t>
-  </si>
-  <si>
-    <t>Verify that user can add product into list "Yêu thích" on section "Bán nhiều nhất".</t>
-  </si>
-  <si>
-    <t>Verify that user can add product into list "Yêu thích" on section "Sản phẩm".</t>
-  </si>
-  <si>
-    <t>User can add product into list "Yêu thích" on product type.</t>
-  </si>
-  <si>
-    <t>TC-013</t>
-  </si>
-  <si>
-    <t>List "Yêu thích": Asus Vivobook S14 S410UA, Canon M10 KIT 15-45mm</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Click on "yêu thích" button.
-3. Clicks on remove icon of "Asus Vivobook S14 S410UA".
-4. Observer the list "Yêu thích".</t>
-  </si>
-  <si>
-    <t>Verify that user can add product into list "Giỏ hàng".</t>
-  </si>
-  <si>
-    <t>TC-014</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Click on "Thêm vào giỏ hàng" button of "Canon M10 KIT 15-45mm".
-3. Click on "Thêm vào giỏ hàng" button of "Asus Vivobook S14 S410UA".
-4. Clicks on "Giỏ hàng" button.
-5. Observer the list "Giỏ hàng".</t>
+3. Observe the program's navigation.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "yêu thích" button of "Canon M10 KIT 15-45mm".
 3. Click on "Yêu thích" button.
-4. Observer the list "Yêu thích".</t>
+4. Observe the list "Yêu thích".</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "yêu thích" button of "Canon 750D + Lens 18-55".
 3. Click on "Yêu thích" button.
-4. Observer the list "Yêu thích".</t>
+4. Observe the list "Yêu thích".</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Select "Máy ảnh" tab, Click on "yêu thích" button of "Canon 750D + Lens 18-55".
 3. Click on "Yêu thích" button.
-4. Observer the list "Yêu thích".</t>
-  </si>
-  <si>
-    <t>Verify that user can view list "Giỏ hàng".</t>
-  </si>
-  <si>
-    <t>TC-015</t>
-  </si>
-  <si>
-    <t>TC-016</t>
-  </si>
-  <si>
-    <t>Verify that user can view list "Yêu thích".</t>
-  </si>
-  <si>
-    <t>TC-017</t>
-  </si>
-  <si>
-    <t>Verify that user can view total cost of "Giỏ hàng".</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Click on "Thêm vào giỏ hàng" button of "Canon M10 KIT 15-45mm".
-3. Click on "Thêm vào giỏ hàng" button of "Asus Vivobook S14 S410UA".
-4. Clicks on "Giỏ hàng" button.
-5. Observer the "Tổng tiền" in "Giỏ hàng".</t>
-  </si>
-  <si>
-    <t>Verify that user can loggout successfully when user user is logged in.</t>
-  </si>
-  <si>
-    <t>TC-018</t>
-  </si>
-  <si>
-    <t>TC-019</t>
-  </si>
-  <si>
-    <t>Verify that user can view account information when user is logged in.</t>
+4. Observe the list "Yêu thích".</t>
   </si>
   <si>
     <t>1. User logged in to Điện máy đỏ web.
 2. Click on "Chào: group05dung1".
-3. Observer the program's navigation.</t>
-  </si>
-  <si>
-    <t>TC-020</t>
-  </si>
-  <si>
-    <t>Verify that the product of the same type are listed in group.</t>
-  </si>
-  <si>
-    <t>The product of the same type are listed in group.</t>
-  </si>
-  <si>
-    <t>TC-021</t>
-  </si>
-  <si>
-    <t>Verify that the mobile phone number follows the format "+84 xxx xxxxxx".</t>
+3. Observe the program's navigation.</t>
   </si>
   <si>
     <t>1. User navigate to Điện máy đỏ web.
 2. Click on "laptop".
-3. Observer the program's navigation.</t>
+3. Observe the program's navigation.</t>
   </si>
   <si>
     <t>1. User navigate to Điện máy đỏ web.
-2. Observer the mobile phone numbers.</t>
-  </si>
-  <si>
-    <t>TC-022</t>
-  </si>
-  <si>
-    <t>Verify that the product type's name is highlight when mouse hovering.</t>
+2. Observe the mobile phone numbers.</t>
   </si>
   <si>
     <t>1. User navigate to Điện máy đỏ web.
-2. Observer the program' navigation.</t>
-  </si>
-  <si>
-    <t>TC-023</t>
-  </si>
-  <si>
-    <t>Verify that all spelling errors are corrected in homepage.</t>
-  </si>
-  <si>
-    <t>Verify that the address info follows the format "street address, district, city".</t>
-  </si>
-  <si>
-    <t>TC-024</t>
-  </si>
-  <si>
-    <t>Verify that the link's name is in capital.</t>
-  </si>
-  <si>
-    <t>Đăng Xuất, ..</t>
-  </si>
-  <si>
-    <t>TC-025</t>
-  </si>
-  <si>
-    <t>TC-026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the holder's border of product is highlighted when mouse hovering. </t>
+2. Observe the program' navigation.</t>
   </si>
   <si>
     <t>1. User navigate to Điện máy đỏ web.
-2. Observer the spelling are corrected.</t>
+2. Observe the spelling are corrected.</t>
   </si>
   <si>
     <t>1. User navigate to Điện máy đỏ web.
-2. Observer the address.</t>
+2. Observe the address.</t>
   </si>
   <si>
     <t>1. User navigate to Điện máy đỏ web.
-2. Observer the link's name.</t>
+2. Observe the link's name.</t>
   </si>
   <si>
     <t>1. User navigate to Điện máy đỏ web.
-2. Observer the border's color.</t>
-  </si>
-  <si>
-    <t>Cần Thơ</t>
-  </si>
-  <si>
-    <t>TC-027</t>
-  </si>
-  <si>
-    <t>Verify that the product price has the thousand separator and the unit price "đồng".</t>
+2. Observe the border's color.</t>
   </si>
   <si>
     <t>1. User navigate to Điện máy đỏ web.
-2. Observer the price.</t>
-  </si>
-  <si>
-    <t>100,000 VNĐ</t>
-  </si>
-  <si>
-    <t>TC-028</t>
-  </si>
-  <si>
-    <t>Verify that the old price is strikethroughed.</t>
-  </si>
-  <si>
-    <t>TC-029</t>
-  </si>
-  <si>
-    <t>Verify that user can register new account with valid information.</t>
+2. Observe the price.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
 3. Input information: group05dung4/123456, Dương Tuấn Dũng, dtdung4@gmail.com, An Giang, 12345678, Name, 1/1/1983
 4. Click on "Đăng ký" button.
-5. Observer the program's dialog.</t>
-  </si>
-  <si>
-    <t>The account name and email are not in database.</t>
-  </si>
-  <si>
-    <t>TC-030</t>
-  </si>
-  <si>
-    <t>Verify that the account's information is save in the database.</t>
+5. Observe the program's dialog.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng nhập" link.
 3. Input information: group05dung3/123456.
 4. Click on "Chào: group05dung3".
-5. Observer the account's information.</t>
-  </si>
-  <si>
-    <t>Giới tính được lưu theo giá trị mặc định.</t>
-  </si>
-  <si>
-    <t>TC-031</t>
-  </si>
-  <si>
-    <t>Verify that account is invalid when user do not active account.</t>
+5. Observe the account's information.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng nhập" link.
 3. Input information: group05dung3/123456.
-4. Observer the account's information.</t>
-  </si>
-  <si>
-    <t>Account is invalid when user do not active account.</t>
-  </si>
-  <si>
-    <t>User is not logged in, and Account is registered.</t>
-  </si>
-  <si>
-    <t>TC-032</t>
-  </si>
-  <si>
-    <t>Verify that account has the user right when user register new account.</t>
-  </si>
-  <si>
-    <t>Account has the user right when user register new account.</t>
-  </si>
-  <si>
-    <t>TC-033</t>
-  </si>
-  <si>
-    <t>Verify that the error message is displayed when user tries to submit with space only in each of the textbox.</t>
+4. Observe the account's information.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
 3. Input space only.
 4. Click on "Đăng ký" button.
-5. Observer the program's dialog.</t>
-  </si>
-  <si>
-    <t>TC-034</t>
-  </si>
-  <si>
-    <t>Verify that the "Đăng ký thành công" message is displayed when user submits valid information.</t>
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng ký" link.
+3. Input information: group05dung2/123456, Dương Tuấn Dũng, dtdung2@gmail.com, An Giang, 12345678, Name, 11/11/1983
+4. Click on "Đăng ký" button.
+5. Observe the program's dialog.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
 3. Input information: group05dung5/123456, Dương Tuấn Dũng, dtdung5@gmail.com, An Giang, 12345678, Name, 11/11/1983
 4. Click on "Đăng ký" button.
-5. Observer the program's dialog.</t>
-  </si>
-  <si>
-    <t>TC-035</t>
-  </si>
-  <si>
-    <t>Verify that the "Tài khoản này đã tồn tại" message is displayed when an account is registed.</t>
-  </si>
-  <si>
-    <t>The account name is in database.</t>
+5. Observe the program's dialog.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
-3. Input information: group05dung2/123456, Dương Tuấn Dũng, dtdung2@gmail.com, An Giang, 12345678, Name, 11/11/1983
-4. Click on "Đăng ký" button.
-5. Observer the program's dialog.</t>
-  </si>
-  <si>
-    <t>Thông báo chưa chính xác: Tài khoản hoặc email đã được sử dụng.</t>
-  </si>
-  <si>
-    <t>TC-036</t>
-  </si>
-  <si>
-    <t>Verify that the "Tên đăng nhập" textbox has a maximum of 20 characters in length.</t>
-  </si>
-  <si>
-    <t>The "Tên đăng nhập" textbox has a maximum of 20 characters in length.</t>
-  </si>
-  <si>
-    <t>TC-037</t>
-  </si>
-  <si>
-    <t>TC-038</t>
-  </si>
-  <si>
-    <t>Verify that "Mật khẩu" textbox has a maximum 20 characters in length.</t>
-  </si>
-  <si>
-    <t>The "Mật khẩu" textbox has a maximum 20 characters in length.</t>
+3. Input information.
+4. Observe the "Tên đăng nhập" textbox.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
 3. Input information
-4. Observer the "Mật khẩu" textbox.</t>
-  </si>
-  <si>
-    <t>1. Navigate to Điện máy đỏ web.
-2. Click on "Đăng ký" link.
-3. Input information.
-4. Observer the "Tên đăng nhập" textbox.</t>
-  </si>
-  <si>
-    <t>Verify that "Email" textbox has a maximum of 30 character in length.</t>
-  </si>
-  <si>
-    <t>The "Email" textbox has a maximum of 30 character in length.</t>
-  </si>
-  <si>
-    <t>TC-039</t>
-  </si>
-  <si>
-    <t>Verify that "Họ tên" textbox has a maximum of 20 character in length.</t>
-  </si>
-  <si>
-    <t>The "Họ tên" textbox has a maximum of 20 character in length.</t>
-  </si>
-  <si>
-    <t>TC-040</t>
-  </si>
-  <si>
-    <t>Verify that "Địa chỉ" textbox has a maximum of 50 character in length.</t>
-  </si>
-  <si>
-    <t>The "Địa chỉ" textbox has a maximum of 50 character in length.</t>
-  </si>
-  <si>
-    <t>TC-041</t>
-  </si>
-  <si>
-    <t>Verify that "Số điện thoại" textbox has a maximum of 20 character in length.</t>
-  </si>
-  <si>
-    <t>The "Số điện thoại" textbox has a maximum of 20 character in length.</t>
-  </si>
-  <si>
-    <t>TC-042</t>
+4. Observe the "Mật khẩu" textbox.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
 3. Input information
-4. Observer the "Số điện thoại" textbox.</t>
+4. Observe the "Email" textbox.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
 3. Input information
-4. Observer the "Địa chỉ" textbox.</t>
+4. Observe the  "Họ tên" textbox.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
 3. Input information
-4. Observer the  "Họ tên" textbox.</t>
+4. Observe the "Địa chỉ" textbox.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
 3. Input information
-4. Observer the "Email" textbox.</t>
-  </si>
-  <si>
-    <t>Verify that the "Đăng ký" button is highlighted when mouse hovering over.</t>
+4. Observe the "Số điện thoại" textbox.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
 3. Input information
-4. Observer the "Đăng ký" button.</t>
-  </si>
-  <si>
-    <t>TC-043</t>
-  </si>
-  <si>
-    <t>Verify that user can select a date in the datetime picker control for "Ngày sinh".</t>
+4. Observe the "Đăng ký" button.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng ký" link.
 3. Select information: date.
-4. Observer the "Đăng ký" button.</t>
-  </si>
-  <si>
-    <t>TC-044</t>
-  </si>
-  <si>
-    <t>Verify that user can logged in successfully with a valid account.</t>
+4. Observe the "Đăng ký" button.</t>
   </si>
   <si>
     <t>1. Navigate to Điện máy đỏ web.
 2. Click on "Đăng nhập" link.
 3. Input information: admin/admin@123
 4. Click on "Đăng nhập" button.
-5. Observer the program's dialog.</t>
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Observe the program's navigation</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: admin/admin@123
+4. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input: blanks only.
+4. Click on "Đăng nhập" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/1234567
+4. Click on "Đăng nhập" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung11/123456
+4. Click on "Đăng nhập" button.
+5. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Thêm vào giỏ hàng" button of "Canon M10 KIT 15-45mm".
+3. Click on "Thêm vào giỏ hàng" button of "Asus Vivobook S14 S410UA".
+4. Click on "Giỏ hàng" button.
+5. Click "Thanh toán" button".
+6. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Observe the "Tên đăng nhập" textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Observe the "Mật khẩu" textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Observe the "Đăng nhập" button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Input to "Họ tên" textbox: Duong Tuan Dung.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Input to "Địa chỉ" textbox: tỉnh An Giang.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Input to "Họ tên" textbox: blank only.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Input to "Địa chỉ" textbox: blank only.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Input to "Điện thoại" textbox: blanks only.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Cập nhật thông tin tài khoản"'s form.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Click on "Bỏ qua" button.
+8. Observe the program's form.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Tên đăng nhập" textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Mật khẩu" textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Số điện thoại" textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Cập nhật" button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the "Bỏ qua" button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung1/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Cập nhật thông tin tài khoản" button.
+7. Observe the table "Thông tin tài khoản".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Input to "Mật khẩu hiện tại" textbox: 123456
+8. Input to "Mật khẩu mới" textbox: 123456
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Input to "Mật khẩu hiện tại" textbox: 123456
+8. Input to "Mật khẩu mới" textbox: blank only.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Input to "Mật khẩu hiện tại" textbox: 123456
+8. Input to "Mật khẩu mới" textbox: 12345.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Input to "Mật khẩu hiện tại" textbox: 123456
+8. Input to "Mật khẩu mới" textbox: 123456.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Input to "Mật khẩu hiện tại" textbox: 12345
+8. Input to "Mật khẩu mới" textbox: 123456.
+8. Click "Cập nhật" button.
+9. Observe the program's dialog.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Click "Bỏ qua" button.
+8. Observe the program's navigation.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Observe the"Mật khẩu hiện tại" textbox.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Đăng nhập" link.
+3. Input information: group05dung5/123456
+4. Click on "Đăng nhập" button.
+5. Click on "Chào group05dung1".
+6. Click on "Đổi mật khẩu" button.
+7. Observe the"Mật khẩu mới" textbox.</t>
+  </si>
+  <si>
+    <t>Verify that user can view the product's information by Click on product's name.</t>
+  </si>
+  <si>
+    <t>Verify that user can view the product's information by Click on product's image.</t>
+  </si>
+  <si>
+    <t>User can view the product's information by Click on product's image.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "yêu thích" button.
+3. Click on remove icon of "Asus Vivobook S14 S410UA".
+4. Observe the list "Yêu thích".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Thêm vào giỏ hàng" button of "Canon M10 KIT 15-45mm".
+3. Click on "Thêm vào giỏ hàng" button of "Asus Vivobook S14 S410UA".
+4. Click on "Giỏ hàng" button.
+5. Observe the list "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>1. Navigate to Điện máy đỏ web.
+2. Click on "Thêm vào giỏ hàng" button of "Canon M10 KIT 15-45mm".
+3. Click on "Thêm vào giỏ hàng" button of "Asus Vivobook S14 S410UA".
+4. Click on "Giỏ hàng" button.
+5. Observe the "Tổng tiền" in "Giỏ hàng".</t>
+  </si>
+  <si>
+    <t>Verify that the "Đăng nhập" form is displayed when user click on "Đăng nhập" button.</t>
+  </si>
+  <si>
+    <t>The "Đăng nhập" form is displayed when user click on "Đăng nhập" button.</t>
+  </si>
+  <si>
+    <t>Verify that the "Cập nhật thông tin tài khoản" form is displayed when user click on the "Cập nhật thông tin tài khoản" button.</t>
+  </si>
+  <si>
+    <t>The "Cập nhật thông tin tài khoản" form is displayed when user click on the "Cập nhật thông tin tài khoản" button.</t>
+  </si>
+  <si>
+    <t>Verify that the "Đổi mật khẩu" form is displayed when user click on the "Đổi mật khẩu" button.</t>
+  </si>
+  <si>
+    <t>The "Đổi mật khẩu" form is displayed when user click on the "Đổi mật khẩu" button.</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +2281,61 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2069,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3232,10 +3882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B50" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3298,7 +3948,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="16"/>
@@ -3350,7 +4000,7 @@
         <v>164</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>218</v>
@@ -3371,16 +4021,16 @@
         <v>37</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>164</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>215</v>
@@ -3423,16 +4073,16 @@
         <v>39</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>221</v>
+        <v>418</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>215</v>
@@ -3450,16 +4100,16 @@
         <v>40</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>222</v>
+        <v>419</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>215</v>
@@ -3477,23 +4127,23 @@
         <v>41</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23" t="s">
-        <v>236</v>
+        <v>420</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G12" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>232</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.2">
@@ -3502,23 +4152,23 @@
         <v>42</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>216</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.2">
@@ -3529,11 +4179,11 @@
         <v>43</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>196</v>
@@ -3554,11 +4204,11 @@
         <v>42</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>243</v>
+        <v>485</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>242</v>
+        <v>422</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>197</v>
@@ -3576,17 +4226,17 @@
         <v>43</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>244</v>
+        <v>486</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23" t="s">
-        <v>245</v>
+        <v>423</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>246</v>
+        <v>487</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>216</v>
@@ -3601,14 +4251,14 @@
         <v>44</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23" t="s">
-        <v>263</v>
+        <v>424</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>215</v>
@@ -3621,20 +4271,20 @@
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="28" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23" t="s">
-        <v>264</v>
+        <v>425</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>216</v>
@@ -3644,20 +4294,20 @@
     <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="28" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="23" t="s">
-        <v>265</v>
+        <v>426</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>216</v>
@@ -3669,16 +4319,16 @@
         <v>50</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>259</v>
+        <v>488</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>144</v>
@@ -3696,14 +4346,14 @@
         <v>51</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="23" t="s">
-        <v>262</v>
+        <v>489</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>140</v>
@@ -3721,14 +4371,14 @@
         <v>52</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="23" t="s">
-        <v>262</v>
+        <v>489</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>145</v>
@@ -3746,14 +4396,14 @@
         <v>53</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="23" t="s">
-        <v>264</v>
+        <v>425</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>146</v>
@@ -3771,14 +4421,14 @@
         <v>54</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="23" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>167</v>
@@ -3796,16 +4446,16 @@
         <v>55</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>164</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>206</v>
@@ -3823,16 +4473,16 @@
         <v>56</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>164</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>277</v>
+        <v>427</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>205</v>
@@ -3850,17 +4500,17 @@
         <v>57</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="23" t="s">
-        <v>283</v>
+        <v>428</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>215</v>
@@ -3875,20 +4525,20 @@
         <v>58</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23" t="s">
-        <v>284</v>
+        <v>429</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>106</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H28" s="25" t="s">
         <v>216</v>
@@ -3900,14 +4550,14 @@
         <v>59</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23" t="s">
-        <v>287</v>
+        <v>430</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>208</v>
@@ -3925,14 +4575,14 @@
         <v>60</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="23" t="s">
-        <v>297</v>
+        <v>431</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>207</v>
@@ -3950,26 +4600,26 @@
         <v>61</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="23" t="s">
-        <v>298</v>
+        <v>432</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>105</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>216</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.2">
@@ -3977,26 +4627,26 @@
         <v>62</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="23" t="s">
-        <v>299</v>
+        <v>433</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>198</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>216</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.2">
@@ -4004,14 +4654,14 @@
         <v>63</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="23" t="s">
-        <v>300</v>
+        <v>434</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>149</v>
@@ -4029,26 +4679,26 @@
         <v>64</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23" t="s">
-        <v>304</v>
+        <v>435</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>133</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H34" s="25" t="s">
         <v>216</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.2">
@@ -4056,14 +4706,14 @@
         <v>65</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23" t="s">
-        <v>304</v>
+        <v>435</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>132</v>
@@ -4094,16 +4744,16 @@
         <v>66</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>151</v>
@@ -4121,28 +4771,28 @@
         <v>67</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>166</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>314</v>
+        <v>437</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>151</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H38" s="25" t="s">
         <v>216</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.2">
@@ -4150,22 +4800,22 @@
         <v>68</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>318</v>
+        <v>438</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>216</v>
@@ -4177,19 +4827,19 @@
         <v>69</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>318</v>
+        <v>438</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>215</v>
@@ -4204,14 +4854,14 @@
         <v>70</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="23" t="s">
-        <v>326</v>
+        <v>439</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>168</v>
@@ -4229,28 +4879,28 @@
         <v>71</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>333</v>
+        <v>440</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>152</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H42" s="25" t="s">
         <v>216</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.2">
@@ -4258,16 +4908,16 @@
         <v>72</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>329</v>
+        <v>441</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>154</v>
@@ -4285,20 +4935,20 @@
         <v>73</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="23" t="s">
-        <v>343</v>
+        <v>442</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H44" s="25" t="s">
         <v>216</v>
@@ -4310,20 +4960,20 @@
         <v>74</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="23" t="s">
-        <v>342</v>
+        <v>443</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H45" s="25" t="s">
         <v>216</v>
@@ -4335,20 +4985,20 @@
         <v>75</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="23" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H46" s="25" t="s">
         <v>216</v>
@@ -4360,20 +5010,20 @@
         <v>76</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="23" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H47" s="25" t="s">
         <v>216</v>
@@ -4385,20 +5035,20 @@
         <v>77</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="23" t="s">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H48" s="25" t="s">
         <v>216</v>
@@ -4410,20 +5060,20 @@
         <v>78</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="23" t="s">
-        <v>356</v>
+        <v>447</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H49" s="25" t="s">
         <v>216</v>
@@ -4435,20 +5085,20 @@
         <v>79</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="23" t="s">
-        <v>361</v>
+        <v>448</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>161</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="H50" s="25" t="s">
         <v>216</v>
@@ -4460,20 +5110,20 @@
         <v>80</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="23" t="s">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>162</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H51" s="25" t="s">
         <v>216</v>
@@ -4498,55 +5148,1075 @@
         <v>81</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="23" t="s">
-        <v>367</v>
+        <v>450</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>211</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H53" s="25" t="s">
         <v>216</v>
       </c>
       <c r="I53" s="26"/>
     </row>
-    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B54" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="26"/>
+    </row>
+    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I55" s="26"/>
+    </row>
+    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" s="26"/>
+    </row>
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I66" s="26"/>
+    </row>
+    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="F70" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C54" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="I54" s="26"/>
+      <c r="G70" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I74" s="26"/>
+    </row>
+    <row r="75" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I75" s="26"/>
+    </row>
+    <row r="76" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I76" s="26"/>
+    </row>
+    <row r="77" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A77" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I78" s="26"/>
+    </row>
+    <row r="79" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I79" s="26"/>
+    </row>
+    <row r="80" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I80" s="26"/>
+    </row>
+    <row r="81" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A81" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I81" s="26"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="19"/>
+    </row>
+    <row r="83" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D83" s="24"/>
+      <c r="E83" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I83" s="26"/>
+    </row>
+    <row r="84" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="D84" s="24"/>
+      <c r="E84" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I84" s="26"/>
+    </row>
+    <row r="85" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="D85" s="24"/>
+      <c r="E85" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I85" s="26"/>
+    </row>
+    <row r="86" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I86" s="26"/>
+    </row>
+    <row r="87" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I87" s="26"/>
+    </row>
+    <row r="88" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I88" s="26"/>
+    </row>
+    <row r="89" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I89" s="26"/>
+    </row>
+    <row r="90" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D90" s="24"/>
+      <c r="E90" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I90" s="26"/>
+    </row>
+    <row r="91" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D91" s="24"/>
+      <c r="E91" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I91" s="26"/>
+    </row>
+    <row r="92" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D92" s="24"/>
+      <c r="E92" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I92" s="26"/>
+    </row>
+    <row r="93" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I93" s="26"/>
+    </row>
+    <row r="94" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I94" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G35 G55:G1048576">
+  <conditionalFormatting sqref="G1:G35 G95:G1048576">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G51">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:G64">
     <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -4557,7 +6227,7 @@
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G51">
+  <conditionalFormatting sqref="G65:G81">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -4568,7 +6238,7 @@
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52:G54">
+  <conditionalFormatting sqref="G82:G94">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
